--- a/biology/Médecine/Nerf_digital_palmaire_propre_du_nerf_médian/Nerf_digital_palmaire_propre_du_nerf_médian.xlsx
+++ b/biology/Médecine/Nerf_digital_palmaire_propre_du_nerf_médian/Nerf_digital_palmaire_propre_du_nerf_médian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_digital_palmaire_propre_du_nerf_m%C3%A9dian</t>
+          <t>Nerf_digital_palmaire_propre_du_nerf_médian</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Les nerfs digitaux palmaires propres du nerf médian (ou nerfs collatéraux palmaires) sont les nerfs des doigts qui innervent leur face palmaire et qui sont issus des branches terminales du nerf médian.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_digital_palmaire_propre_du_nerf_m%C3%A9dian</t>
+          <t>Nerf_digital_palmaire_propre_du_nerf_médian</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un nerf digital palmaire propre est divisé en deux nerfs digitaux palmaires propre par espace interdigital qui sont les branches terminales du nerf digital palmaire commun du nerf médian de cet espace.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_digital_palmaire_propre_du_nerf_m%C3%A9dian</t>
+          <t>Nerf_digital_palmaire_propre_du_nerf_médian</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier nerf digital palmaire commun du nerf médian fournit le nerf digital palmaire propre du pouce qui parcourt sa face médiale et celui de la face latérale de l'index, le deuxième celui de la face médiale de l'index et de la face latérale du majeur et le troisième celui de la face médiale du majeur et de la face latérale de l'annulaire.
 La branche musculaire récurrente du nerf médian fournit le nerf digital palmaire propre de la face latérale du pouce.
